--- a/medicine/Handicap/L'Autre_(film,_2003)/L'Autre_(film,_2003).xlsx
+++ b/medicine/Handicap/L'Autre_(film,_2003)/L'Autre_(film,_2003).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Autre_(film,_2003)</t>
+          <t>L'Autre_(film,_2003)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Autre est un film franco-helvéto-belge réalisé par Benoît Mariage, sorti en 2003.
 C'est le deuxième long métrage de Benoît Mariage.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Autre_(film,_2003)</t>
+          <t>L'Autre_(film,_2003)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Autre est la rencontre entre Laurent (Kuenhen), jeune homme vivant dans une institution spécialisée, et le couple que forment Claire (Dominique Baeyens) et Pierre (Philippe Grand'Henry). Ce couple un peu bo-bo, va avoir son premier enfant mais Claire attend des jumeaux. Elle va lâcher prise face à cette responsabilité supplémentaire et inattendue et recourt à une réduction de grossesse qui ne laisse subsister qu’un des deux fœtus. Cet acte médical reposant « uniquement » sur des motifs psychologiques va éloigner imperceptiblement Pierre de Claire (et inversement). Pierre parti, Claire va alors sortir de sa bulle en travaillant comme éducateur dans l’institution de Laurent.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27Autre_(film,_2003)</t>
+          <t>L'Autre_(film,_2003)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : L'Autre
 Réalisation : Benoît Mariage
@@ -575,7 +591,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%27Autre_(film,_2003)</t>
+          <t>L'Autre_(film,_2003)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -593,7 +609,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dominique Baeyens : Claire
 Philippe Grand'Henry : Pierre
